--- a/BusStation/wwwroot/Reports/passangersReport.xlsx
+++ b/BusStation/wwwroot/Reports/passangersReport.xlsx
@@ -10,7 +10,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Список пассажиров</t>
   </si>
@@ -120,7 +120,7 @@
     <t>Даниилович</t>
   </si>
   <si>
-    <t>ФамилияПассажира</t>
+    <t>ФамилияПассажир</t>
   </si>
   <si>
     <t>ИмяПассажира</t>
@@ -133,6 +133,15 @@
   </si>
   <si>
     <t>user@user.com</t>
+  </si>
+  <si>
+    <t>ДырковNew</t>
+  </si>
+  <si>
+    <t>ИгорьNew</t>
+  </si>
+  <si>
+    <t>ОтчествоNewц</t>
   </si>
 </sst>
 </file>
@@ -383,7 +392,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -637,6 +646,35 @@
         <v>40</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>9</v>
+      </c>
+      <c r="B11" s="0">
+        <v>12</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="0">
+        <v>45075</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:I1"/>
